--- a/Output_testing/R1_201907/Country/HKD/MN/MALTA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALTA_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>12.243176</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.071571</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>111.7641809886111</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/MALTA_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/MALTA_201907_HKD_MN.xlsx
@@ -812,136 +812,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>12.027341</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>5.858095248476678</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>18.980196</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>14.78813964802503</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>20.143539</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>14.12049249092471</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>10.377078</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>16.28990238659012</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-23.22006855611308</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>34.527556</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>16.81715948230888</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>13.948352</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>10.86765264361913</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>16.096602</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>11.2836154396903</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>8.687827</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>13.63812180862301</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>29.40250984501924</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1.763946</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.8591561244642056</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.951213</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.520258817508621</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>8.433508</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>5.911835372431501</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>7.24161</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>11.36785519216054</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>33.4869320647275</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>8.57611</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>4.177121879342518</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>7.594455</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>5.917107552031704</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>11.305851</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>7.925329513796638</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>5.713533</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>8.969085021097596</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>2.771809946188797</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>6.245235</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>3.041834556708773</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>2.030285</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>1.58186659954884</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>6.535949</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>4.581658604059935</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>4.369902</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>6.859857564814</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>0.2188351420524981</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>GLASS</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>6.599596</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.21443135016008</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>5.984789</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>4.662960039820668</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>3.932936</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.756963076611685</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>4.299181</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>6.748839975211027</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>84.12359530832229</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>14.449542</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>7.037864257184044</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>7.345814</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>5.723382585744496</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>9.618748</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>6.742681060467929</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>3.850889</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>6.045112690835863</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-57.4263856557609</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>30.479164</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>14.84532996993612</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>14.713832</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>11.46406509045425</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>11.994917</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>8.408360389292326</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>3.594556</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>5.642722003547803</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-64.4632512044689</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>21.342776</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>10.39531636085666</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>9.03308</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>7.037990992916086</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>8.271865999999999</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>5.798525360361722</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>2.900145</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>4.552637934971425</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-49.56616023768802</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>3.847541</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>1.87400204670502</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>6.134642</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>4.779715793590307</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>5.378066</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.769989998713607</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.676165</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>2.63123821887229</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-43.95574009257761</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>65.45265499999999</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>31.87968872385703</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>40.630764</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>31.65686023674087</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>40.942667</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>28.70054869364965</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>10.991632</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>17.25462720327633</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-51.99371425039969</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -973,136 +1270,585 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>0.4419605306150837</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>0.5576301638684831</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>85.15739615207276</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>0.1752957635638635</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.1605736211330076</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>14.84260384792723</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>4.10904</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>77.02890646074835</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>11.152574</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>98.72700767042457</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>7.865626</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>64.24498022408565</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>0.9266999011887531</v>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>0.2657577970138387</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>4.36824</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>35.67897741566404</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>658</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>MADE-UP ARTICLES, WHOLLY OR CHIEFLY OF TEXTILE MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.07422093744302949</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.2890307475601024</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="n">
+        <v>1.131</v>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>21.20195792864182</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.2251794152421269</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>EGGS, BIRDS', AND EGG YOLKS, FRESH, DRIED OR OTHERWISE PRESERVED, SWEETENED OR NOT; EGG ALBUMIN</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>FISH, FRESH (LIVE OR DEAD), CHILLED OR FROZEN</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1134,136 +1880,433 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>12.027341</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>6.014360677959599</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>18.980196</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>16.21531515403972</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>20.143539</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>15.44614023338269</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>10.377078</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>16.30822498995654</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-23.22006855611308</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>34.527556</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>17.26575933221217</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>13.948352</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.91646933253377</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>16.096602</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>12.34293396870074</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>8.687827</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>13.65346173458648</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>29.40250984501924</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.763946</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.8820742224273946</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.951213</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.666976132789108</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>8.433508</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>6.466845137160593</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>7.24161</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>11.38064156109448</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>33.4869320647275</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>8.57611</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>4.288547132226158</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>7.594455</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>6.488156457824393</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>11.305851</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>8.669368376814516</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>5.713533</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>8.979173294403429</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>2.771809946188797</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>6.245235</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>3.122975877096776</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>2.030285</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>1.73452956584429</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>6.535949</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>5.011789875266573</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>4.369902</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>6.867573415181139</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>0.2188351420524981</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>GLASS</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>6.599596</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>3.30017671177856</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>5.984789</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>5.112973531223292</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>3.932936</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>3.015789876094721</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>4.299181</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>6.756430954893694</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>84.12359530832229</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>14.449542</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>7.225600173747939</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>7.345814</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>6.275735459894993</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>9.618748</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>7.375691554377275</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.850889</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>6.051912130114927</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-57.4263856557609</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>30.479164</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>15.24133101894108</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>14.713832</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>12.57044042135258</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>11.994917</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>9.197746735059116</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>3.594556</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>5.64906884066962</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-64.4632512044689</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>20.211776</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>10.10704783427422</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>9.03308</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>7.717214248559556</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>8.271865999999999</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>6.342897453508558</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>2.900145</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>4.557758664192126</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-49.56616023768802</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL MACHINERY AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>3.847541</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>1.923991287620211</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>6.134642</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>5.240997162895922</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>5.378066</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>4.123920906866837</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.676165</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>2.634197790581366</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-43.95574009257761</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>61.249242</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>30.62813573171589</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>29.334388</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>25.06119253304238</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>28.699491</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>22.00687588276838</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>10.920061</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>17.16155662432621</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-39.92165211012739</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1295,136 +2338,471 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1661.031346</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>95.14595841197546</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>1991.787739</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>96.67044096574145</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>1587.311359</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>94.66025574966605</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>855.613729</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>96.64260538590673</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>2.245971924378209</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>50.836195</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.911960997569925</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>31.207627</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>1.514646869499772</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>52.305034</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>3.11924177154142</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>12.826295</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>1.448745531113642</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-51.90115806567452</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>4.802951</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>0.2751190561221088</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>7.930664</v>
+      </c>
+      <c r="F59" s="9" t="n">
+        <v>0.384910887349895</v>
+      </c>
+      <c r="G59" s="8" t="n">
+        <v>14.600446</v>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>0.870706269808272</v>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>5.527119</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>0.6242947750058221</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-15.98580712082096</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>8.129894</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.4656905231081466</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>6.920474</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>0.3358818111852774</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>5.885839</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.3510055049264967</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>5.030995</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>0.5682569692420981</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>34.03541032033723</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WASTE, PARINGS AND SCRAP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>3.982632</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>0.228130155132065</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>2.825444</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>0.1371315386955539</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>1.514035</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>0.09029037655487832</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>1.480151</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.1671848453995006</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>118.3738414826661</v>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>0.05299968438785016</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>2.296125</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>0.136930778262768</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>0.634392</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.07165534357148697</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-56.31661215355484</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>NAILS, SCREWS, NUTS, BOLTS, RIVETS AND THE LIKE, OF IRON, STEEL, COPPER OR ALUMINIUM</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>0.605928</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.06844030034991606</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>872</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>INSTRUMENTS AND APPLIANCES, N.E.S., FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY PURPOSES</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="n">
+        <v>2.205714</v>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.1263460638585155</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>3.035659</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.1473342206127627</v>
+      </c>
+      <c r="G64" s="8" t="n">
+        <v>1.049555</v>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.0625908358558787</v>
+      </c>
+      <c r="I64" s="8" t="n">
+        <v>0.552882</v>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.06244869050128447</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>5.007236219844335</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>TAPS, COCKS, VALVES AND SIMILAR APPLIANCES, FOR PIPES, BOILER SHELLS, TANKS, VATS AND THE LIKE</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.501946</v>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="n">
+        <v>0.520281</v>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.05876636812683138</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>70.3030739469007</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="n">
+        <v>1.363843</v>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.07812263728252594</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.05520501649754068</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>150.0747024692748</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>13.419262</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.7686721549512544</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>14.869221</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>0.7216703480706903</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>11.178551</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>0.6666395288932631</v>
+      </c>
+      <c r="I67" s="8" t="n">
+        <v>2.057497</v>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>0.2323967742851482</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-68.81096461043587</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
